--- a/medicine/Sexualité et sexologie/Il_n'y_a_pas_de_rapport_sexuel/Il_n'y_a_pas_de_rapport_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Il_n'y_a_pas_de_rapport_sexuel/Il_n'y_a_pas_de_rapport_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il_n%27y_a_pas_de_rapport_sexuel</t>
+          <t>Il_n'y_a_pas_de_rapport_sexuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas de rapport sexuel est un documentaire français réalisé par Raphaël Siboni et sorti en 2012[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de rapport sexuel est un documentaire français réalisé par Raphaël Siboni et sorti en 2012,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il_n%27y_a_pas_de_rapport_sexuel</t>
+          <t>Il_n'y_a_pas_de_rapport_sexuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Portrait de l'acteur et réalisateur de films pornographiques HPG, réalisé à partir de rushes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Il_n%27y_a_pas_de_rapport_sexuel</t>
+          <t>Il_n'y_a_pas_de_rapport_sexuel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Il n'y a pas de rapport sexuel
 Réalisation : Raphaël Siboni
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Il_n%27y_a_pas_de_rapport_sexuel</t>
+          <t>Il_n'y_a_pas_de_rapport_sexuel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hervé Pierre-Gustave
 Cindy Dollar
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Il_n%27y_a_pas_de_rapport_sexuel</t>
+          <t>Il_n'y_a_pas_de_rapport_sexuel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Sélections[3]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rencontres cinématographiques In&amp;Out 2012
 Festival international canadien du documentaire Hot Docs 2012
